--- a/broad_fields.xlsx
+++ b/broad_fields.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\Brookfield 2023\Microcredentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D1FD43-E441-4442-939C-CC98CCF766C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F945CD31-4D45-47BD-9F52-8D22B8AA5337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="870" windowWidth="21600" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="broad_fields" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1" iterateCount="50"/>
 </workbook>
 </file>
 
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
